--- a/data/trans_bre/P14B_x_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Provincia-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 12,99</t>
+          <t>3,69; 12,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,12</t>
+          <t>0,67; 5,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>77,3; 1000,71</t>
+          <t>79,89; 922,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 803,24</t>
+          <t>8,6; 721,62</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,78</t>
+          <t>2,81; 8,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 9,67</t>
+          <t>3,36; 9,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,32; 534,93</t>
+          <t>62,47; 529,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,68; 360,88</t>
+          <t>47,68; 338,27</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,71</t>
+          <t>1,99; 7,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,63</t>
+          <t>-3,02; 3,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,79; —</t>
+          <t>65,36; 2437,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 88,67</t>
+          <t>-38,42; 88,43</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,94</t>
+          <t>0,98; 5,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 6,64</t>
+          <t>-0,74; 6,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,36; 963,65</t>
+          <t>19,53; 982,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 201,02</t>
+          <t>-11,2; 194,38</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 8,06</t>
+          <t>-1,96; 7,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,88</t>
+          <t>0,14; 4,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 260,91</t>
+          <t>-29,49; 248,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 1126,82</t>
+          <t>-12,48; 975,24</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,93</t>
+          <t>5,36; 13,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,98</t>
+          <t>-2,07; 4,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>165,17; —</t>
+          <t>215,38; 3842,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 127,62</t>
+          <t>-31,47; 121,14</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,0</t>
+          <t>1,24; 5,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 7,34</t>
+          <t>0,29; 7,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,93; 912,11</t>
+          <t>47,53; 963,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 193,41</t>
+          <t>4,98; 201,85</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,51</t>
+          <t>2,18; 6,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,41</t>
+          <t>2,49; 6,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>73,89; 430,48</t>
+          <t>64,6; 416,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72,34; 374,66</t>
+          <t>59,82; 371,72</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,77</t>
+          <t>3,74; 5,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,9</t>
+          <t>2,69; 5,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>164,33; 345,51</t>
+          <t>158,65; 353,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>56,92; 146,23</t>
+          <t>58,27; 144,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14B_x_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 12,36</t>
+          <t>4,07; 12,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,89; 922,49</t>
+          <t>75,8; 1015,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 8,76</t>
+          <t>2,95; 8,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,47; 529,76</t>
+          <t>70,37; 495,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,37</t>
+          <t>1,92; 7,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>65,36; 2437,32</t>
+          <t>40,18; 2062,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,79</t>
+          <t>1,1; 5,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,53; 982,53</t>
+          <t>31,54; 1376,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 7,79</t>
+          <t>-1,04; 8,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 248,57</t>
+          <t>-20,23; 287,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 13,06</t>
+          <t>5,39; 13,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>215,38; 3842,85</t>
+          <t>214,67; 3612,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,12</t>
+          <t>1,3; 5,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>47,53; 963,25</t>
+          <t>46,46; 978,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,36</t>
+          <t>2,15; 6,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>64,6; 416,05</t>
+          <t>55,33; 396,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,74</t>
+          <t>3,73; 5,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>158,65; 353,41</t>
+          <t>155,0; 336,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P14B_x_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P14B_x_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 12,71</t>
+          <t>4,37; 12,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,11</t>
+          <t>0,61; 5,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,8; 1015,41</t>
+          <t>77,3; 1000,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 721,62</t>
+          <t>10,35; 803,24</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,58</t>
+          <t>2,97; 8,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,35</t>
+          <t>3,73; 9,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>70,37; 495,76</t>
+          <t>79,32; 534,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,68; 338,27</t>
+          <t>52,68; 360,88</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,33</t>
+          <t>1,93; 7,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 3,48</t>
+          <t>-2,69; 3,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,18; 2062,75</t>
+          <t>69,79; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 88,43</t>
+          <t>-35,05; 88,67</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,65</t>
+          <t>0,96; 5,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 6,4</t>
+          <t>-0,77; 6,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,54; 1376,91</t>
+          <t>29,36; 963,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 194,38</t>
+          <t>-11,66; 201,02</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,22</t>
+          <t>-1,46; 8,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 4,77</t>
+          <t>0,61; 4,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 287,82</t>
+          <t>-26,17; 260,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 975,24</t>
+          <t>3,24; 1126,82</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,39; 13,01</t>
+          <t>5,12; 12,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 4,91</t>
+          <t>-1,87; 4,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>214,67; 3612,1</t>
+          <t>165,17; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 121,14</t>
+          <t>-26,78; 127,62</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,05</t>
+          <t>1,25; 5,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 7,53</t>
+          <t>-0,32; 7,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,46; 978,01</t>
+          <t>45,93; 912,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,98; 201,85</t>
+          <t>-3,89; 193,41</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,3</t>
+          <t>2,37; 6,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,47</t>
+          <t>2,64; 6,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>55,33; 396,7</t>
+          <t>73,89; 430,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>59,82; 371,72</t>
+          <t>72,34; 374,66</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,73</t>
+          <t>3,79; 5,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,01</t>
+          <t>2,61; 4,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>155,0; 336,82</t>
+          <t>164,33; 345,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>58,27; 144,3</t>
+          <t>56,92; 146,23</t>
         </is>
       </c>
     </row>
